--- a/マイルストーン、WBS.xlsx
+++ b/マイルストーン、WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\3DGame01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD9A8F6-28FE-48E7-9230-8E6C6DECE6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9BAD13-B5DB-46F5-9CA5-856A0CD288FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9816779B-1AA3-49B6-8252-ABE4C3A9AD34}"/>
+    <workbookView xWindow="7650" yWindow="75" windowWidth="12045" windowHeight="10155" xr2:uid="{9816779B-1AA3-49B6-8252-ABE4C3A9AD34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>マイルストーン＆WBS</t>
   </si>
@@ -186,16 +186,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>タイトル、操作、クリア画面</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -371,19 +361,108 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>全て</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>プリミティブなオブジェクトを岩などの実態にする</t>
+    <t>全てのオブジェクト、敵を破壊</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>一定数弾を受けたら破壊される</t>
+    <rPh sb="0" eb="3">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>破壊後</t>
+    <rPh sb="0" eb="3">
+      <t>ハカイゴ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>アイテムをドロップ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プレイヤ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エンディング</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プリミティブなオブジェクトを岩などの実体にする</t>
     <rPh sb="14" eb="15">
       <t>イワ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>ジッタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タイトル、操作、クリア画面などの基本的な挙動完成</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -412,21 +491,50 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>をつけて完成</t>
     </r>
-    <rPh sb="13" eb="15">
+    <rPh sb="16" eb="18">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>操作</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
+    <t>弾を受けたら消える</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
     </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プレイヤをkillできる</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -434,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +609,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -584,7 +699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -831,13 +946,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,6 +1049,84 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -955,80 +1172,29 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0615CC83-159D-487D-9689-06CBA5453623}">
-  <dimension ref="A1:AU998"/>
+  <dimension ref="A1:AU1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1608,19 +1774,19 @@
     <row r="6" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="3"/>
       <c r="M6" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1829,19 @@
     <row r="7" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="50" t="s">
-        <v>57</v>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>53</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="47"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="3"/>
       <c r="M7" s="7" t="s">
         <v>6</v>
@@ -1724,19 +1890,19 @@
     <row r="8" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="50" t="s">
-        <v>37</v>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
+        <v>65</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="47"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="3"/>
       <c r="M8" s="9" t="s">
         <v>11</v>
@@ -1785,34 +1951,34 @@
     <row r="9" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="50" t="s">
-        <v>55</v>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43" t="s">
+        <v>64</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="47"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="42"/>
       <c r="L9" s="3"/>
       <c r="M9" s="23">
         <v>45251</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="23">
-        <v>44929</v>
+        <v>44938</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="23">
-        <v>44933</v>
+        <v>44945</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="23">
-        <v>44945</v>
+        <v>44952</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1846,19 +2012,19 @@
     <row r="10" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="46" t="s">
-        <v>56</v>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41" t="s">
+        <v>66</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="47"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2361,60 +2527,60 @@
       <c r="AU20" s="3"/>
     </row>
     <row r="21" spans="1:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="51" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="36" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="27" t="s">
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28"/>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="29"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="55"/>
     </row>
     <row r="22" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -2425,62 +2591,62 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33" t="s">
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="33" t="s">
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="33" t="s">
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="24" t="s">
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="24" t="s">
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="24" t="s">
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="24" t="s">
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="26"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="52"/>
     </row>
     <row r="23" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2607,7 +2773,7 @@
       <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -2662,20 +2828,20 @@
     </row>
     <row r="25" spans="1:47" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="56">
+      <c r="B25" s="27">
         <v>1</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>38</v>
+      <c r="E25" s="24" t="s">
+        <v>37</v>
       </c>
-      <c r="F25" s="53" t="s">
-        <v>40</v>
+      <c r="F25" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -2720,15 +2886,17 @@
     </row>
     <row r="26" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="56">
+      <c r="B26" s="27">
         <v>2</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="53" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="22"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -2772,18 +2940,18 @@
     </row>
     <row r="27" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="56">
+      <c r="B27" s="27">
         <v>3</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>40</v>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -2828,15 +2996,17 @@
     </row>
     <row r="28" spans="1:47" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="56">
+      <c r="B28" s="27">
         <v>4</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="53" t="s">
-        <v>43</v>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="24" t="s">
+        <v>42</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2880,18 +3050,18 @@
     </row>
     <row r="29" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="56">
+      <c r="B29" s="27">
         <v>5</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="59" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>40</v>
+      <c r="F29" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
@@ -2936,13 +3106,13 @@
     </row>
     <row r="30" spans="1:47" ht="63" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="56">
+      <c r="B30" s="27">
         <v>6</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55" t="s">
-        <v>50</v>
+      <c r="C30" s="32"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="17"/>
@@ -2988,18 +3158,18 @@
     </row>
     <row r="31" spans="1:47" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="56">
+      <c r="B31" s="27">
         <v>7</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="53" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>40</v>
+      <c r="F31" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -3047,11 +3217,11 @@
       <c r="B32" s="21">
         <v>8</v>
       </c>
-      <c r="C32" s="53" t="s">
-        <v>53</v>
+      <c r="C32" s="66" t="s">
+        <v>55</v>
       </c>
-      <c r="D32" s="53" t="s">
-        <v>54</v>
+      <c r="D32" s="71" t="s">
+        <v>56</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3101,8 +3271,8 @@
       <c r="B33" s="21">
         <v>9</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="17"/>
@@ -3146,15 +3316,21 @@
       <c r="AS33" s="20"/>
       <c r="AT33" s="20"/>
     </row>
-    <row r="34" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="21">
         <v>10</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
@@ -3201,10 +3377,12 @@
       <c r="B35" s="21">
         <v>11</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
@@ -3251,8 +3429,8 @@
       <c r="B36" s="21">
         <v>12</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="17"/>
@@ -3301,8 +3479,8 @@
       <c r="B37" s="21">
         <v>13</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="17"/>
@@ -3351,10 +3529,16 @@
       <c r="B38" s="21">
         <v>14</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>67</v>
+      </c>
       <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="F38" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -3401,8 +3585,8 @@
       <c r="B39" s="21">
         <v>15</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="17"/>
@@ -3451,8 +3635,10 @@
       <c r="B40" s="21">
         <v>16</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="71" t="s">
+        <v>68</v>
+      </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="17"/>
@@ -3501,8 +3687,8 @@
       <c r="B41" s="21">
         <v>17</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
       <c r="G41" s="17"/>
@@ -3551,7 +3737,7 @@
       <c r="B42" s="21">
         <v>18</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -3601,7 +3787,7 @@
       <c r="B43" s="21">
         <v>19</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -3801,8 +3987,12 @@
       <c r="B47" s="21">
         <v>23</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>60</v>
+      </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="17"/>
@@ -3851,8 +4041,10 @@
       <c r="B48" s="21">
         <v>24</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
       <c r="G48" s="17"/>
@@ -3901,8 +4093,10 @@
       <c r="B49" s="21">
         <v>25</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="65" t="s">
+        <v>62</v>
+      </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="17"/>
@@ -3948,11 +4142,9 @@
     </row>
     <row r="50" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="21">
-        <v>26</v>
-      </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="17"/>
@@ -3998,21 +4190,11 @@
     </row>
     <row r="51" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="21">
-        <v>27</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="53" t="s">
-        <v>40</v>
-      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -4054,19 +4236,13 @@
       <c r="AS51" s="20"/>
       <c r="AT51" s="20"/>
     </row>
-    <row r="52" spans="1:46" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="21">
-        <v>28</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>40</v>
-      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -4110,11 +4286,9 @@
     </row>
     <row r="53" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="21">
-        <v>29</v>
-      </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
       <c r="G53" s="17"/>
@@ -4158,197 +4332,223 @@
       <c r="AS53" s="20"/>
       <c r="AT53" s="20"/>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-    </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-      <c r="AH55" s="3"/>
-      <c r="AI55" s="3"/>
-      <c r="AJ55" s="3"/>
-      <c r="AK55" s="3"/>
-      <c r="AL55" s="3"/>
-      <c r="AM55" s="3"/>
-      <c r="AN55" s="3"/>
-      <c r="AO55" s="3"/>
-      <c r="AP55" s="3"/>
-      <c r="AQ55" s="3"/>
-      <c r="AR55" s="3"/>
-      <c r="AS55" s="3"/>
-      <c r="AT55" s="3"/>
-    </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="3"/>
-      <c r="AK56" s="3"/>
-      <c r="AL56" s="3"/>
-      <c r="AM56" s="3"/>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="3"/>
-    </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="3"/>
-      <c r="AK57" s="3"/>
-      <c r="AL57" s="3"/>
-      <c r="AM57" s="3"/>
-      <c r="AN57" s="3"/>
-      <c r="AO57" s="3"/>
-      <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="3"/>
-      <c r="AT57" s="3"/>
+    <row r="54" spans="1:46" ht="37.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="21">
+        <v>26</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="20"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="20"/>
+      <c r="AS54" s="20"/>
+      <c r="AT54" s="20"/>
+    </row>
+    <row r="55" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="21">
+        <v>27</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="19"/>
+      <c r="AJ55" s="19"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="19"/>
+      <c r="AM55" s="19"/>
+      <c r="AN55" s="19"/>
+      <c r="AO55" s="19"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="20"/>
+      <c r="AT55" s="20"/>
+    </row>
+    <row r="56" spans="1:46" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="21">
+        <v>28</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="19"/>
+      <c r="AO56" s="19"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="20"/>
+      <c r="AS56" s="20"/>
+      <c r="AT56" s="20"/>
+    </row>
+    <row r="57" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="21">
+        <v>29</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="19"/>
+      <c r="AL57" s="19"/>
+      <c r="AM57" s="19"/>
+      <c r="AN57" s="19"/>
+      <c r="AO57" s="19"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+      <c r="AR57" s="20"/>
+      <c r="AS57" s="20"/>
+      <c r="AT57" s="20"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -6749,7 +6949,6 @@
       <c r="AR107" s="3"/>
       <c r="AS107" s="3"/>
       <c r="AT107" s="3"/>
-      <c r="AU107" s="3"/>
     </row>
     <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
@@ -6798,7 +6997,6 @@
       <c r="AR108" s="3"/>
       <c r="AS108" s="3"/>
       <c r="AT108" s="3"/>
-      <c r="AU108" s="3"/>
     </row>
     <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
@@ -6847,7 +7045,6 @@
       <c r="AR109" s="3"/>
       <c r="AS109" s="3"/>
       <c r="AT109" s="3"/>
-      <c r="AU109" s="3"/>
     </row>
     <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
@@ -6896,7 +7093,6 @@
       <c r="AR110" s="3"/>
       <c r="AS110" s="3"/>
       <c r="AT110" s="3"/>
-      <c r="AU110" s="3"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
@@ -50410,9 +50606,224 @@
       <c r="AT998" s="3"/>
       <c r="AU998" s="3"/>
     </row>
+    <row r="999" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A999" s="3"/>
+      <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="3"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
+      <c r="G999" s="3"/>
+      <c r="H999" s="3"/>
+      <c r="I999" s="3"/>
+      <c r="J999" s="3"/>
+      <c r="K999" s="3"/>
+      <c r="L999" s="3"/>
+      <c r="M999" s="3"/>
+      <c r="N999" s="3"/>
+      <c r="O999" s="3"/>
+      <c r="P999" s="3"/>
+      <c r="Q999" s="3"/>
+      <c r="R999" s="3"/>
+      <c r="S999" s="3"/>
+      <c r="T999" s="3"/>
+      <c r="U999" s="3"/>
+      <c r="V999" s="3"/>
+      <c r="W999" s="3"/>
+      <c r="X999" s="3"/>
+      <c r="Y999" s="3"/>
+      <c r="Z999" s="3"/>
+      <c r="AA999" s="3"/>
+      <c r="AB999" s="3"/>
+      <c r="AC999" s="3"/>
+      <c r="AD999" s="3"/>
+      <c r="AE999" s="3"/>
+      <c r="AF999" s="3"/>
+      <c r="AG999" s="3"/>
+      <c r="AH999" s="3"/>
+      <c r="AI999" s="3"/>
+      <c r="AJ999" s="3"/>
+      <c r="AK999" s="3"/>
+      <c r="AL999" s="3"/>
+      <c r="AM999" s="3"/>
+      <c r="AN999" s="3"/>
+      <c r="AO999" s="3"/>
+      <c r="AP999" s="3"/>
+      <c r="AQ999" s="3"/>
+      <c r="AR999" s="3"/>
+      <c r="AS999" s="3"/>
+      <c r="AT999" s="3"/>
+      <c r="AU999" s="3"/>
+    </row>
+    <row r="1000" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1000" s="3"/>
+      <c r="B1000" s="3"/>
+      <c r="C1000" s="3"/>
+      <c r="D1000" s="3"/>
+      <c r="E1000" s="3"/>
+      <c r="F1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="3"/>
+      <c r="N1000" s="3"/>
+      <c r="O1000" s="3"/>
+      <c r="P1000" s="3"/>
+      <c r="Q1000" s="3"/>
+      <c r="R1000" s="3"/>
+      <c r="S1000" s="3"/>
+      <c r="T1000" s="3"/>
+      <c r="U1000" s="3"/>
+      <c r="V1000" s="3"/>
+      <c r="W1000" s="3"/>
+      <c r="X1000" s="3"/>
+      <c r="Y1000" s="3"/>
+      <c r="Z1000" s="3"/>
+      <c r="AA1000" s="3"/>
+      <c r="AB1000" s="3"/>
+      <c r="AC1000" s="3"/>
+      <c r="AD1000" s="3"/>
+      <c r="AE1000" s="3"/>
+      <c r="AF1000" s="3"/>
+      <c r="AG1000" s="3"/>
+      <c r="AH1000" s="3"/>
+      <c r="AI1000" s="3"/>
+      <c r="AJ1000" s="3"/>
+      <c r="AK1000" s="3"/>
+      <c r="AL1000" s="3"/>
+      <c r="AM1000" s="3"/>
+      <c r="AN1000" s="3"/>
+      <c r="AO1000" s="3"/>
+      <c r="AP1000" s="3"/>
+      <c r="AQ1000" s="3"/>
+      <c r="AR1000" s="3"/>
+      <c r="AS1000" s="3"/>
+      <c r="AT1000" s="3"/>
+      <c r="AU1000" s="3"/>
+    </row>
+    <row r="1001" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+      <c r="AA1001" s="3"/>
+      <c r="AB1001" s="3"/>
+      <c r="AC1001" s="3"/>
+      <c r="AD1001" s="3"/>
+      <c r="AE1001" s="3"/>
+      <c r="AF1001" s="3"/>
+      <c r="AG1001" s="3"/>
+      <c r="AH1001" s="3"/>
+      <c r="AI1001" s="3"/>
+      <c r="AJ1001" s="3"/>
+      <c r="AK1001" s="3"/>
+      <c r="AL1001" s="3"/>
+      <c r="AM1001" s="3"/>
+      <c r="AN1001" s="3"/>
+      <c r="AO1001" s="3"/>
+      <c r="AP1001" s="3"/>
+      <c r="AQ1001" s="3"/>
+      <c r="AR1001" s="3"/>
+      <c r="AS1001" s="3"/>
+      <c r="AT1001" s="3"/>
+      <c r="AU1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="3"/>
+      <c r="O1002" s="3"/>
+      <c r="P1002" s="3"/>
+      <c r="Q1002" s="3"/>
+      <c r="R1002" s="3"/>
+      <c r="S1002" s="3"/>
+      <c r="T1002" s="3"/>
+      <c r="U1002" s="3"/>
+      <c r="V1002" s="3"/>
+      <c r="W1002" s="3"/>
+      <c r="X1002" s="3"/>
+      <c r="Y1002" s="3"/>
+      <c r="Z1002" s="3"/>
+      <c r="AA1002" s="3"/>
+      <c r="AB1002" s="3"/>
+      <c r="AC1002" s="3"/>
+      <c r="AD1002" s="3"/>
+      <c r="AE1002" s="3"/>
+      <c r="AF1002" s="3"/>
+      <c r="AG1002" s="3"/>
+      <c r="AH1002" s="3"/>
+      <c r="AI1002" s="3"/>
+      <c r="AJ1002" s="3"/>
+      <c r="AK1002" s="3"/>
+      <c r="AL1002" s="3"/>
+      <c r="AM1002" s="3"/>
+      <c r="AN1002" s="3"/>
+      <c r="AO1002" s="3"/>
+      <c r="AP1002" s="3"/>
+      <c r="AQ1002" s="3"/>
+      <c r="AR1002" s="3"/>
+      <c r="AS1002" s="3"/>
+      <c r="AT1002" s="3"/>
+      <c r="AU1002" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C51:C52"/>
+  <mergeCells count="35">
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="AP22:AT22"/>
+    <mergeCell ref="AA21:AT21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="V22:Z22"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AK22:AO22"/>
+    <mergeCell ref="L21:Z21"/>
+    <mergeCell ref="C55:C56"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A21:F21"/>
@@ -50428,17 +50839,6 @@
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="G21:K21"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AA21:AT21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AK22:AO22"/>
-    <mergeCell ref="L21:Z21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/マイルストーン、WBS.xlsx
+++ b/マイルストーン、WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9BAD13-B5DB-46F5-9CA5-856A0CD288FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B823B3C8-329E-423F-92C1-0CC691C44578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="75" windowWidth="12045" windowHeight="10155" xr2:uid="{9816779B-1AA3-49B6-8252-ABE4C3A9AD34}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9816779B-1AA3-49B6-8252-ABE4C3A9AD34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>マイルストーン＆WBS</t>
   </si>
@@ -72,46 +72,7 @@
     <t>また、大∋中∋小と親子関係になるように徹底しましょう。</t>
   </si>
   <si>
-    <t>第 ６ 週</t>
-  </si>
-  <si>
-    <t>第 9週</t>
-  </si>
-  <si>
-    <t>第10週</t>
-  </si>
-  <si>
-    <t>第 １１週</t>
-  </si>
-  <si>
-    <t>第 １２ 週</t>
-  </si>
-  <si>
-    <t>第 １３週</t>
-  </si>
-  <si>
-    <t>第１４週</t>
-  </si>
-  <si>
-    <t>第１５週</t>
-  </si>
-  <si>
     <t>項目数は足りなければ増やしても構いません。</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>金</t>
   </si>
   <si>
     <t>No</t>
@@ -167,14 +128,14 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プレイヤの操作</t>
     <rPh sb="5" eb="7">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>上下左右キーで移動</t>
@@ -187,7 +148,7 @@
     <rPh sb="7" eb="9">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>基本操作</t>
@@ -197,7 +158,7 @@
     <rPh sb="2" eb="4">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>方向に対応</t>
@@ -207,11 +168,11 @@
     <rPh sb="3" eb="5">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>完了</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>弾発射</t>
@@ -221,28 +182,28 @@
     <rPh sb="1" eb="3">
       <t>ハッシャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ボタンで発射</t>
     <rPh sb="4" eb="6">
       <t>ハッシャ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>タイトル画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>仮実装</t>
@@ -252,32 +213,32 @@
     <rPh sb="1" eb="3">
       <t>ジッソウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>文字</t>
     <rPh sb="0" eb="2">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>push any button</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>カメラ回転</t>
     <rPh sb="3" eb="5">
       <t>カイテン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>基本操作</t>
     <rPh sb="0" eb="4">
       <t>キホンソウサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -340,32 +301,32 @@
     <rPh sb="17" eb="18">
       <t>ウゴ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ジャンプ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>空白でジャンプ</t>
     <rPh sb="0" eb="2">
       <t>クウハク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>クリア条件</t>
     <rPh sb="3" eb="5">
       <t>ジョウケン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>操作</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>全てのオブジェクト、敵を破壊</t>
@@ -378,11 +339,11 @@
     <rPh sb="12" eb="14">
       <t>ハカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>オブジェクト</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>一定数弾を受けたら破壊される</t>
@@ -398,41 +359,41 @@
     <rPh sb="9" eb="11">
       <t>ハカイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>破壊後</t>
     <rPh sb="0" eb="3">
       <t>ハカイゴ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アイテムをドロップ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テクスチャ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プレイヤ</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>アイテム</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>敵</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エンディング</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プリミティブなオブジェクトを岩などの実体にする</t>
@@ -442,7 +403,7 @@
     <rPh sb="18" eb="20">
       <t>ジッタイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>タイトル、操作、クリア画面などの基本的な挙動完成</t>
@@ -464,7 +425,7 @@
     <rPh sb="22" eb="24">
       <t>カンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -518,7 +479,7 @@
     <rPh sb="16" eb="18">
       <t>カンセイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>弾を受けたら消える</t>
@@ -531,18 +492,25 @@
     <rPh sb="6" eb="7">
       <t>キ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>プレイヤをkillできる</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アセット適用</t>
+    <rPh sb="4" eb="6">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,18 +547,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -619,7 +575,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,74 +588,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45818E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF833C0C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2F75B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC65911"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -752,38 +642,7 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color rgb="FFB7B7B7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,54 +680,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB7B7B7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFB7B7B7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,34 +821,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,13 +836,13 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,22 +851,49 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,109 +905,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1512,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0615CC83-159D-487D-9689-06CBA5453623}">
   <dimension ref="A1:AU1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1774,19 +1510,19 @@
     <row r="6" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="3"/>
       <c r="M6" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1565,19 @@
     <row r="7" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="41" t="s">
-        <v>34</v>
+      <c r="C7" s="42" t="s">
+        <v>21</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43" t="s">
-        <v>53</v>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
+        <v>40</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="42"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="3"/>
       <c r="M7" s="7" t="s">
         <v>6</v>
@@ -1890,19 +1626,19 @@
     <row r="8" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43" t="s">
-        <v>65</v>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44" t="s">
+        <v>52</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="42"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="3"/>
       <c r="M8" s="9" t="s">
         <v>11</v>
@@ -1951,34 +1687,34 @@
     <row r="9" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43" t="s">
-        <v>64</v>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44" t="s">
+        <v>51</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="42"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="23">
+      <c r="M9" s="15">
         <v>45251</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="23">
+      <c r="O9" s="15">
         <v>44938</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="23">
+      <c r="Q9" s="15">
         <v>44945</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="23">
-        <v>44952</v>
+      <c r="S9" s="15">
+        <v>44956</v>
       </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -2012,19 +1748,19 @@
     <row r="10" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="41" t="s">
-        <v>66</v>
+      <c r="D10" s="43"/>
+      <c r="E10" s="42" t="s">
+        <v>53</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="42"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2526,63 +2262,17 @@
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
     </row>
-    <row r="21" spans="1:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="55"/>
-    </row>
-    <row r="22" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2591,1964 +2281,454 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="52"/>
-      <c r="AP22" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="52"/>
     </row>
     <row r="23" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="12" t="s">
+    </row>
+    <row r="24" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="F25" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="19">
+        <v>2</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="F26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="12" t="s">
+    </row>
+    <row r="27" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="19">
+        <v>3</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="E27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="F27" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="19">
+        <v>4</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="19">
+        <v>5</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" ht="63" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="19">
+        <v>6</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="19">
+        <v>7</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="13">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="13">
+        <v>9</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="13">
+        <v>10</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="13">
+        <v>11</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="13">
+        <v>12</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="13">
+        <v>13</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="13">
+        <v>14</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="13">
+        <v>15</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="13">
+        <v>16</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="13">
+        <v>17</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="13">
+        <v>18</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="13">
+        <v>19</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="13">
+        <v>20</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="13">
+        <v>21</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="13">
+        <v>22</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="13">
+        <v>23</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="13">
         <v>24</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="13">
         <v>25</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:46" ht="37.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="13">
         <v>26</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="C54" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="13">
         <v>27</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="C55" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="13">
         <v>28</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>24</v>
+      <c r="C56" s="31"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="16" t="s">
+        <v>33</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S23" s="13" t="s">
+      <c r="F56" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="15"/>
-      <c r="AR23" s="15"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-    </row>
-    <row r="24" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="16" t="s">
+    </row>
+    <row r="57" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="13">
         <v>29</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
-    </row>
-    <row r="25" spans="1:47" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="27">
-        <v>1</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
-    </row>
-    <row r="26" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="27">
-        <v>2</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-    </row>
-    <row r="27" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
-    </row>
-    <row r="28" spans="1:47" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="27">
-        <v>4</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-    </row>
-    <row r="29" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="27">
-        <v>5</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-    </row>
-    <row r="30" spans="1:47" ht="63" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="27">
-        <v>6</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="20"/>
-    </row>
-    <row r="31" spans="1:47" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="27">
-        <v>7</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="24" t="s">
+      <c r="C57" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-      <c r="AT31" s="20"/>
-    </row>
-    <row r="32" spans="1:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="21">
-        <v>8</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
-      <c r="AT32" s="20"/>
-    </row>
-    <row r="33" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="21">
-        <v>9</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="20"/>
-      <c r="AR33" s="20"/>
-      <c r="AS33" s="20"/>
-      <c r="AT33" s="20"/>
-    </row>
-    <row r="34" spans="1:46" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="21">
-        <v>10</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="20"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
-      <c r="AS34" s="20"/>
-      <c r="AT34" s="20"/>
-    </row>
-    <row r="35" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="21">
-        <v>11</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="19"/>
-      <c r="AP35" s="20"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
-    </row>
-    <row r="36" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="21">
-        <v>12</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="19"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
-    </row>
-    <row r="37" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="21">
-        <v>13</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="19"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-    </row>
-    <row r="38" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="21">
-        <v>14</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="20"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
-      <c r="AT38" s="20"/>
-    </row>
-    <row r="39" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="21">
-        <v>15</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
-      <c r="AT39" s="20"/>
-    </row>
-    <row r="40" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="21">
-        <v>16</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="20"/>
-      <c r="AT40" s="20"/>
-    </row>
-    <row r="41" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="21">
-        <v>17</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20"/>
-      <c r="AT41" s="20"/>
-    </row>
-    <row r="42" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="21">
-        <v>18</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-    </row>
-    <row r="43" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="21">
-        <v>19</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="20"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
-      <c r="AS43" s="20"/>
-      <c r="AT43" s="20"/>
-    </row>
-    <row r="44" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="21">
-        <v>20</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="19"/>
-      <c r="AP44" s="20"/>
-      <c r="AQ44" s="20"/>
-      <c r="AR44" s="20"/>
-      <c r="AS44" s="20"/>
-      <c r="AT44" s="20"/>
-    </row>
-    <row r="45" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="21">
-        <v>21</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="19"/>
-      <c r="AM45" s="19"/>
-      <c r="AN45" s="19"/>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="20"/>
-      <c r="AQ45" s="20"/>
-      <c r="AR45" s="20"/>
-      <c r="AS45" s="20"/>
-      <c r="AT45" s="20"/>
-    </row>
-    <row r="46" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="21">
-        <v>22</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="20"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
-      <c r="AT46" s="20"/>
-    </row>
-    <row r="47" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="21">
-        <v>23</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19"/>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="20"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20"/>
-    </row>
-    <row r="48" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="21">
-        <v>24</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="18"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="19"/>
-      <c r="AI48" s="19"/>
-      <c r="AJ48" s="19"/>
-      <c r="AK48" s="19"/>
-      <c r="AL48" s="19"/>
-      <c r="AM48" s="19"/>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="19"/>
-      <c r="AP48" s="20"/>
-      <c r="AQ48" s="20"/>
-      <c r="AR48" s="20"/>
-      <c r="AS48" s="20"/>
-      <c r="AT48" s="20"/>
-    </row>
-    <row r="49" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="21">
-        <v>25</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="18"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="19"/>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="19"/>
-      <c r="AM49" s="19"/>
-      <c r="AN49" s="19"/>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="20"/>
-      <c r="AQ49" s="20"/>
-      <c r="AR49" s="20"/>
-      <c r="AS49" s="20"/>
-      <c r="AT49" s="20"/>
-    </row>
-    <row r="50" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="18"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="19"/>
-      <c r="AJ50" s="19"/>
-      <c r="AK50" s="19"/>
-      <c r="AL50" s="19"/>
-      <c r="AM50" s="19"/>
-      <c r="AN50" s="19"/>
-      <c r="AO50" s="19"/>
-      <c r="AP50" s="20"/>
-      <c r="AQ50" s="20"/>
-      <c r="AR50" s="20"/>
-      <c r="AS50" s="20"/>
-      <c r="AT50" s="20"/>
-    </row>
-    <row r="51" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19"/>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19"/>
-      <c r="AM51" s="19"/>
-      <c r="AN51" s="19"/>
-      <c r="AO51" s="19"/>
-      <c r="AP51" s="20"/>
-      <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20"/>
-    </row>
-    <row r="52" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="18"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="19"/>
-      <c r="AI52" s="19"/>
-      <c r="AJ52" s="19"/>
-      <c r="AK52" s="19"/>
-      <c r="AL52" s="19"/>
-      <c r="AM52" s="19"/>
-      <c r="AN52" s="19"/>
-      <c r="AO52" s="19"/>
-      <c r="AP52" s="20"/>
-      <c r="AQ52" s="20"/>
-      <c r="AR52" s="20"/>
-      <c r="AS52" s="20"/>
-      <c r="AT52" s="20"/>
-    </row>
-    <row r="53" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="20"/>
-      <c r="AQ53" s="20"/>
-      <c r="AR53" s="20"/>
-      <c r="AS53" s="20"/>
-      <c r="AT53" s="20"/>
-    </row>
-    <row r="54" spans="1:46" ht="37.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="21">
-        <v>26</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="19"/>
-      <c r="AJ54" s="19"/>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="19"/>
-      <c r="AN54" s="19"/>
-      <c r="AO54" s="19"/>
-      <c r="AP54" s="20"/>
-      <c r="AQ54" s="20"/>
-      <c r="AR54" s="20"/>
-      <c r="AS54" s="20"/>
-      <c r="AT54" s="20"/>
-    </row>
-    <row r="55" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="21">
-        <v>27</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="19"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="20"/>
-      <c r="AQ55" s="20"/>
-      <c r="AR55" s="20"/>
-      <c r="AS55" s="20"/>
-      <c r="AT55" s="20"/>
-    </row>
-    <row r="56" spans="1:46" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="21">
-        <v>28</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="19"/>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="19"/>
-      <c r="AH56" s="19"/>
-      <c r="AI56" s="19"/>
-      <c r="AJ56" s="19"/>
-      <c r="AK56" s="19"/>
-      <c r="AL56" s="19"/>
-      <c r="AM56" s="19"/>
-      <c r="AN56" s="19"/>
-      <c r="AO56" s="19"/>
-      <c r="AP56" s="20"/>
-      <c r="AQ56" s="20"/>
-      <c r="AR56" s="20"/>
-      <c r="AS56" s="20"/>
-      <c r="AT56" s="20"/>
-    </row>
-    <row r="57" spans="1:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="21">
-        <v>29</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="19"/>
-      <c r="AI57" s="19"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="19"/>
-      <c r="AM57" s="19"/>
-      <c r="AN57" s="19"/>
-      <c r="AO57" s="19"/>
-      <c r="AP57" s="20"/>
-      <c r="AQ57" s="20"/>
-      <c r="AR57" s="20"/>
-      <c r="AS57" s="20"/>
-      <c r="AT57" s="20"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
@@ -50803,26 +48983,7 @@
       <c r="AU1002" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="AP22:AT22"/>
-    <mergeCell ref="AA21:AT21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="V22:Z22"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AK22:AO22"/>
-    <mergeCell ref="L21:Z21"/>
+  <mergeCells count="24">
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="D25:D26"/>
@@ -50837,10 +48998,18 @@
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:K10"/>
-    <mergeCell ref="G21:K21"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>